--- a/src/main/resources/157-black-shop/black-shop-portal-web_attribute.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-portal-web_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>类名</t>
   </si>
@@ -135,7 +135,10 @@
     <t>cn.blackshop.portal.web.controller.IndexController</t>
   </si>
   <si>
-    <t>index(javax.servlet.http.HttpServletRequest)</t>
+    <t>index(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.ui.Model</t>
   </si>
   <si>
     <t>public</t>
@@ -652,10 +655,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
